--- a/excel/finished/8高炉/配料单报表.xlsx
+++ b/excel/finished/8高炉/配料单报表.xlsx
@@ -9,15 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="_metadata" sheetId="6" r:id="rId2"/>
-    <sheet name="_peiliao_day_each" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="_dictionary" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="_peiliao_day_each" sheetId="4" r:id="rId3"/>
+    <sheet name="_dictionary" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>8BF变料单</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>分</t>
-  </si>
-  <si>
-    <t>时   分</t>
   </si>
   <si>
     <t>version</t>
@@ -153,16 +150,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="h&quot;时&quot;mm&quot;分&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="h&quot;时&quot;mm&quot;分&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,11 +219,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -236,8 +231,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,14 +268,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -280,9 +275,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,17 +306,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,23 +328,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,6 +351,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -375,25 +377,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,79 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -487,80 +561,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -593,6 +595,124 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -612,119 +732,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
@@ -745,8 +752,10 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -756,36 +765,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -793,8 +773,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
@@ -808,40 +790,68 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,6 +871,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -876,6 +919,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -899,21 +953,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -925,7 +964,7 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -934,137 +973,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1083,61 +1122,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1152,20 +1197,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1173,7 +1212,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1182,49 +1224,67 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1292,15 +1352,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1312,192 +1372,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3967480" y="1381125"/>
-          <a:ext cx="0" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line 3"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5362575"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 4"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5362575"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 5"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5362575"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 6"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5362575"/>
-          <a:ext cx="0" cy="0"/>
+          <a:off x="5419725" y="1676400"/>
+          <a:ext cx="0" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1522,16 +1398,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1542,154 +1418,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11396980" y="5067300"/>
-          <a:ext cx="76200" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Line 9"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5362575"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Line 10"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5362575"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:noFill/>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Text Box 11"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5362575"/>
+          <a:off x="8334375" y="5181600"/>
           <a:ext cx="76200" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1733,7 +1462,62 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Text Box 11"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5762625"/>
+          <a:ext cx="76200" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1744,7 +1528,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5362575"/>
+          <a:off x="0" y="5762625"/>
           <a:ext cx="76200" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1779,15 +1563,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1799,8 +1583,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3967480" y="1381125"/>
-          <a:ext cx="0" cy="428625"/>
+          <a:off x="5419725" y="1676400"/>
+          <a:ext cx="0" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2113,945 +1897,948 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V25"/>
+  <dimension ref="C1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.36666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.9" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.4" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.4" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.925" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.4" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.9" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.7" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.6" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.75" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="8.875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
+    <col min="4" max="11" width="6.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.625" style="1" customWidth="1"/>
+    <col min="13" max="19" width="6.125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:17">
-      <c r="A1" s="2" t="s">
+    <row r="1" customHeight="1"/>
+    <row r="2" ht="28.5" customHeight="1" spans="3:19">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="45"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="49"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:17">
-      <c r="A2" s="4" t="s">
+    <row r="3" ht="24.75" customHeight="1" spans="3:19">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6" t="s">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="46"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="50"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:17">
-      <c r="A3" s="7" t="s">
+    <row r="4" ht="15" customHeight="1" spans="3:19">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="str">
+      <c r="D4" s="8" t="str">
         <f>IF(_peiliao_day_each!A2="","",_peiliao_day_each!A2)</f>
         <v/>
       </c>
-      <c r="C3" s="8" t="str">
+      <c r="E4" s="9" t="str">
         <f>IF(_peiliao_day_each!B2="","",_peiliao_day_each!B2)</f>
         <v/>
       </c>
-      <c r="D3" s="8" t="str">
+      <c r="F4" s="9" t="str">
         <f>IF(_peiliao_day_each!C2="","",_peiliao_day_each!C2)</f>
         <v/>
       </c>
-      <c r="E3" s="8" t="str">
+      <c r="G4" s="9" t="str">
         <f>IF(_peiliao_day_each!D2="","",_peiliao_day_each!D2)</f>
         <v/>
       </c>
-      <c r="F3" s="8" t="str">
+      <c r="H4" s="9" t="str">
         <f>IF(_peiliao_day_each!E2="","",_peiliao_day_each!E2)</f>
         <v/>
       </c>
-      <c r="G3" s="8" t="str">
+      <c r="I4" s="9" t="str">
         <f>IF(_peiliao_day_each!F2="","",_peiliao_day_each!F2)</f>
         <v/>
       </c>
-      <c r="H3" s="8" t="str">
+      <c r="J4" s="9" t="str">
         <f>IF(_peiliao_day_each!G2="","",_peiliao_day_each!G2)</f>
         <v/>
       </c>
-      <c r="I3" s="8" t="str">
+      <c r="K4" s="37" t="str">
         <f>IF(_peiliao_day_each!H2="","",_peiliao_day_each!H2)</f>
         <v/>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="L4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="8" t="str">
+      <c r="M4" s="8" t="str">
         <f>IF(_peiliao_day_each!A5="","",_peiliao_day_each!A5)</f>
         <v/>
       </c>
-      <c r="L3" s="8" t="str">
+      <c r="N4" s="9" t="str">
         <f>IF(_peiliao_day_each!B5="","",_peiliao_day_each!B5)</f>
         <v/>
       </c>
-      <c r="M3" s="8" t="str">
+      <c r="O4" s="9" t="str">
         <f>IF(_peiliao_day_each!C5="","",_peiliao_day_each!C5)</f>
         <v/>
       </c>
-      <c r="N3" s="8" t="str">
+      <c r="P4" s="9" t="str">
         <f>IF(_peiliao_day_each!D5="","",_peiliao_day_each!D5)</f>
         <v/>
       </c>
-      <c r="O3" s="8" t="str">
+      <c r="Q4" s="9" t="str">
         <f>IF(_peiliao_day_each!E5="","",_peiliao_day_each!E5)</f>
         <v/>
       </c>
-      <c r="P3" s="8" t="str">
+      <c r="R4" s="9" t="str">
         <f>IF(_peiliao_day_each!F5="","",_peiliao_day_each!F5)</f>
         <v/>
       </c>
-      <c r="Q3" s="8" t="str">
+      <c r="S4" s="51" t="str">
         <f>IF(_peiliao_day_each!G5="","",_peiliao_day_each!G5)</f>
         <v/>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:17">
-      <c r="A4" s="9"/>
-      <c r="B4" s="8" t="str">
+    <row r="5" ht="18" customHeight="1" spans="3:19">
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="str">
         <f>IF(_peiliao_day_each!A3="","",_peiliao_day_each!A3)</f>
         <v/>
       </c>
-      <c r="C4" s="8" t="str">
+      <c r="E5" s="9" t="str">
         <f>IF(_peiliao_day_each!B3="","",_peiliao_day_each!B3)</f>
         <v/>
       </c>
-      <c r="D4" s="8" t="str">
+      <c r="F5" s="9" t="str">
         <f>IF(_peiliao_day_each!C3="","",_peiliao_day_each!C3)</f>
         <v/>
       </c>
-      <c r="E4" s="8" t="str">
+      <c r="G5" s="9" t="str">
         <f>IF(_peiliao_day_each!D3="","",_peiliao_day_each!D3)</f>
         <v/>
       </c>
-      <c r="F4" s="8" t="str">
+      <c r="H5" s="9" t="str">
         <f>IF(_peiliao_day_each!E3="","",_peiliao_day_each!E3)</f>
         <v/>
       </c>
-      <c r="G4" s="8" t="str">
+      <c r="I5" s="9" t="str">
         <f>IF(_peiliao_day_each!F3="","",_peiliao_day_each!F3)</f>
         <v/>
       </c>
-      <c r="H4" s="8" t="str">
+      <c r="J5" s="9" t="str">
         <f>IF(_peiliao_day_each!G3="","",_peiliao_day_each!G3)</f>
         <v/>
       </c>
-      <c r="I4" s="8" t="str">
+      <c r="K5" s="37" t="str">
         <f>IF(_peiliao_day_each!H3="","",_peiliao_day_each!H3)</f>
         <v/>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="8" t="str">
+      <c r="L5" s="39"/>
+      <c r="M5" s="8" t="str">
         <f>IF(_peiliao_day_each!A6="","",_peiliao_day_each!A6)</f>
         <v/>
       </c>
-      <c r="L4" s="8" t="str">
+      <c r="N5" s="9" t="str">
         <f>IF(_peiliao_day_each!B6="","",_peiliao_day_each!B6)</f>
         <v/>
       </c>
-      <c r="M4" s="8" t="str">
+      <c r="O5" s="9" t="str">
         <f>IF(_peiliao_day_each!C6="","",_peiliao_day_each!C6)</f>
         <v/>
       </c>
-      <c r="N4" s="8" t="str">
+      <c r="P5" s="9" t="str">
         <f>IF(_peiliao_day_each!D6="","",_peiliao_day_each!D6)</f>
         <v/>
       </c>
-      <c r="O4" s="8" t="str">
+      <c r="Q5" s="9" t="str">
         <f>IF(_peiliao_day_each!E6="","",_peiliao_day_each!E6)</f>
         <v/>
       </c>
-      <c r="P4" s="8" t="str">
+      <c r="R5" s="9" t="str">
         <f>IF(_peiliao_day_each!F6="","",_peiliao_day_each!F6)</f>
         <v/>
       </c>
-      <c r="Q4" s="8" t="str">
+      <c r="S5" s="51" t="str">
         <f>IF(_peiliao_day_each!G6="","",_peiliao_day_each!G6)</f>
         <v/>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="18" customHeight="1" spans="1:17">
-      <c r="A5" s="10"/>
-      <c r="B5" s="8" t="str">
+    <row r="6" ht="15" customHeight="1" spans="3:19">
+      <c r="C6" s="10"/>
+      <c r="D6" s="8" t="str">
         <f>IF(_peiliao_day_each!A4="","",_peiliao_day_each!A4)</f>
         <v/>
       </c>
-      <c r="C5" s="8" t="str">
+      <c r="E6" s="9" t="str">
         <f>IF(_peiliao_day_each!B4="","",_peiliao_day_each!B4)</f>
         <v/>
       </c>
-      <c r="D5" s="8" t="str">
+      <c r="F6" s="9" t="str">
         <f>IF(_peiliao_day_each!C4="","",_peiliao_day_each!C4)</f>
         <v/>
       </c>
-      <c r="E5" s="8" t="str">
+      <c r="G6" s="9" t="str">
         <f>IF(_peiliao_day_each!D4="","",_peiliao_day_each!D4)</f>
         <v/>
       </c>
-      <c r="F5" s="8" t="str">
+      <c r="H6" s="9" t="str">
         <f>IF(_peiliao_day_each!E4="","",_peiliao_day_each!E4)</f>
         <v/>
       </c>
-      <c r="G5" s="8" t="str">
+      <c r="I6" s="9" t="str">
         <f>IF(_peiliao_day_each!F4="","",_peiliao_day_each!F4)</f>
         <v/>
       </c>
-      <c r="H5" s="8" t="str">
+      <c r="J6" s="9" t="str">
         <f>IF(_peiliao_day_each!G4="","",_peiliao_day_each!G4)</f>
         <v/>
       </c>
-      <c r="I5" s="8" t="str">
+      <c r="K6" s="37" t="str">
         <f>IF(_peiliao_day_each!H4="","",_peiliao_day_each!H4)</f>
         <v/>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="8" t="str">
+      <c r="L6" s="40"/>
+      <c r="M6" s="8" t="str">
         <f>IF(_peiliao_day_each!A7="","",_peiliao_day_each!A7)</f>
         <v/>
       </c>
-      <c r="L5" s="8" t="str">
+      <c r="N6" s="9" t="str">
         <f>IF(_peiliao_day_each!B7="","",_peiliao_day_each!B7)</f>
         <v/>
       </c>
-      <c r="M5" s="8" t="str">
+      <c r="O6" s="9" t="str">
         <f>IF(_peiliao_day_each!C7="","",_peiliao_day_each!C7)</f>
         <v/>
       </c>
-      <c r="N5" s="8" t="str">
+      <c r="P6" s="9" t="str">
         <f>IF(_peiliao_day_each!D7="","",_peiliao_day_each!D7)</f>
         <v/>
       </c>
-      <c r="O5" s="8" t="str">
+      <c r="Q6" s="9" t="str">
         <f>IF(_peiliao_day_each!E7="","",_peiliao_day_each!E7)</f>
         <v/>
       </c>
-      <c r="P5" s="8" t="str">
+      <c r="R6" s="9" t="str">
         <f>IF(_peiliao_day_each!F7="","",_peiliao_day_each!F7)</f>
         <v/>
       </c>
-      <c r="Q5" s="8" t="str">
+      <c r="S6" s="51" t="str">
         <f>IF(_peiliao_day_each!G7="","",_peiliao_day_each!G7)</f>
         <v/>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:17">
-      <c r="A6" s="11"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="46"/>
+    <row r="7" ht="16.5" customHeight="1" spans="3:19">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="52"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:17">
-      <c r="A7" s="12" t="s">
+    <row r="8" ht="17.25" customHeight="1" spans="3:19">
+      <c r="C8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15" t="str">
+      <c r="F8" s="15"/>
+      <c r="G8" s="16" t="str">
         <f>IF(_peiliao_day_each!G1="","",_peiliao_day_each!G1)</f>
         <v/>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="14" t="s">
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="14" t="s">
+      <c r="K8" s="12"/>
+      <c r="L8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="14">
-        <f>IF(C5&gt;0,SUM(B5:I5),"")</f>
+      <c r="M8" s="15">
+        <f>IF(E6&gt;0,SUM(D6:K6),"")</f>
         <v>0</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="N8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="46"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="52"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:17">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="14" t="s">
+    <row r="9" ht="15" customHeight="1" spans="3:19">
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15" t="str">
+      <c r="F9" s="15"/>
+      <c r="G9" s="16" t="str">
         <f>IF(_peiliao_day_each!H1="","",_peiliao_day_each!H1)</f>
         <v/>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="14" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="14" t="s">
+      <c r="K9" s="12"/>
+      <c r="L9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="14">
-        <f>IF(L5&gt;0,SUM(K5:Q5),"")</f>
+      <c r="M9" s="15">
+        <f>IF(N6&gt;0,SUM(M6:S6),"")</f>
         <v>0</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="N9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="46"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="52"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="12.75" customHeight="1" spans="1:17">
-      <c r="A9" s="17" t="s">
+    <row r="10" ht="18.75" customHeight="1" spans="3:19">
+      <c r="C10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="46"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="52"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A10" s="20" t="s">
+    <row r="11" ht="18.75" customHeight="1" spans="3:19">
+      <c r="C11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="21" t="str">
+      <c r="D11" s="22" t="str">
         <f>IF(_peiliao_day_each!A9="","",_peiliao_day_each!A9)</f>
         <v/>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22" t="str">
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25" t="str">
         <f>IF(_peiliao_day_each!B9="","",IF(_peiliao_day_each!B9=0,"",_peiliao_day_each!B9))</f>
         <v/>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23" t="s">
+      <c r="H11" s="26"/>
+      <c r="I11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="22" t="str">
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="42" t="str">
         <f>IF(_peiliao_day_each!C9="","",IF(_peiliao_day_each!C9=0,"",_peiliao_day_each!C9))</f>
         <v/>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="23" t="s">
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="46"/>
+      <c r="S11" s="52"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A11" s="20" t="s">
+    <row r="12" ht="16.5" customHeight="1" spans="3:19">
+      <c r="C12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="21" t="str">
+      <c r="D12" s="22" t="str">
         <f>IF(_peiliao_day_each!A10="","",_peiliao_day_each!A10)</f>
         <v/>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="22" t="str">
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25" t="str">
         <f>IF(_peiliao_day_each!B10="","",IF(_peiliao_day_each!B10=0,"",_peiliao_day_each!B10))</f>
         <v/>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23" t="s">
+      <c r="H12" s="26"/>
+      <c r="I12" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="22" t="str">
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="42" t="str">
         <f>IF(_peiliao_day_each!C10="","",IF(_peiliao_day_each!C10=0,"",_peiliao_day_each!C10))</f>
         <v/>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="23" t="s">
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="Q11" s="46"/>
+      <c r="S12" s="52"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:17">
-      <c r="A12" s="20" t="s">
+    <row r="13" ht="18.75" customHeight="1" spans="3:19">
+      <c r="C13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="21" t="str">
+      <c r="D13" s="22" t="str">
         <f>IF(_peiliao_day_each!A11="","",_peiliao_day_each!A11)</f>
         <v/>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22" t="str">
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25" t="str">
         <f>IF(_peiliao_day_each!B11="","",IF(_peiliao_day_each!B11=0,"",_peiliao_day_each!B11))</f>
         <v/>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23" t="s">
+      <c r="H13" s="26"/>
+      <c r="I13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="14" t="s">
+      <c r="J13" s="43"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="22" t="str">
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="42" t="str">
         <f>IF(_peiliao_day_each!C11="","",IF(_peiliao_day_each!C11=0,"",_peiliao_day_each!C11))</f>
         <v/>
       </c>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="23" t="s">
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="46"/>
+      <c r="S13" s="52"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A13" s="20" t="s">
+    <row r="14" ht="18" customHeight="1" spans="3:19">
+      <c r="C14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="21" t="str">
+      <c r="D14" s="22" t="str">
         <f>IF(_peiliao_day_each!A12="","",_peiliao_day_each!A12)</f>
         <v/>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22" t="str">
+      <c r="E14" s="23"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25" t="str">
         <f>IF(_peiliao_day_each!B12="","",IF(_peiliao_day_each!B12=0,"",_peiliao_day_each!B12))</f>
         <v/>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23" t="s">
+      <c r="H14" s="26"/>
+      <c r="I14" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="14" t="s">
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="22" t="str">
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="42" t="str">
         <f>IF(_peiliao_day_each!C12="","",IF(_peiliao_day_each!C12=0,"",_peiliao_day_each!C12))</f>
         <v/>
       </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="23" t="s">
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="46"/>
+      <c r="S14" s="52"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="18" customHeight="1" spans="1:17">
-      <c r="A14" s="20" t="s">
+    <row r="15" ht="18.75" customHeight="1" spans="3:19">
+      <c r="C15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="21" t="str">
+      <c r="D15" s="22" t="str">
         <f>IF(_peiliao_day_each!A13="","",_peiliao_day_each!A13)</f>
         <v/>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22" t="str">
+      <c r="E15" s="23"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25" t="str">
         <f>IF(_peiliao_day_each!B13="","",IF(_peiliao_day_each!B13=0,"",_peiliao_day_each!B13))</f>
         <v/>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23" t="s">
+      <c r="H15" s="26"/>
+      <c r="I15" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="22" t="str">
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="42" t="str">
         <f>IF(_peiliao_day_each!C13="","",IF(_peiliao_day_each!C13=0,"",_peiliao_day_each!C13))</f>
         <v/>
       </c>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23" t="s">
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="Q14" s="46"/>
+      <c r="S15" s="52"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:17">
-      <c r="A15" s="20" t="s">
+    <row r="16" ht="15.75" customHeight="1" spans="3:19">
+      <c r="C16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="21" t="str">
+      <c r="D16" s="22" t="str">
         <f>IF(_peiliao_day_each!A14="","",_peiliao_day_each!A14)</f>
         <v/>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22" t="str">
+      <c r="E16" s="23"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25" t="str">
         <f>IF(_peiliao_day_each!B14="","",IF(_peiliao_day_each!B14=0,"",_peiliao_day_each!B14))</f>
         <v/>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23" t="s">
+      <c r="H16" s="26"/>
+      <c r="I16" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="22" t="str">
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="42" t="str">
         <f>IF(_peiliao_day_each!C14="","",IF(_peiliao_day_each!C14=0,"",_peiliao_day_each!C14))</f>
         <v/>
       </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="23" t="s">
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="Q15" s="46"/>
+      <c r="S16" s="52"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:17">
-      <c r="A16" s="20" t="s">
+    <row r="17" ht="17.25" customHeight="1" spans="3:19">
+      <c r="C17" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="21" t="str">
+      <c r="D17" s="22" t="str">
         <f>IF(_peiliao_day_each!A15="","",_peiliao_day_each!A15)</f>
         <v/>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22" t="str">
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25" t="str">
         <f>IF(_peiliao_day_each!B15="","",IF(_peiliao_day_each!B15=0,"",_peiliao_day_each!B15))</f>
         <v/>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23" t="s">
+      <c r="H17" s="26"/>
+      <c r="I17" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="22" t="str">
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="42" t="str">
         <f>IF(_peiliao_day_each!C15="","",IF(_peiliao_day_each!C15=0,"",_peiliao_day_each!C15))</f>
         <v/>
       </c>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="23" t="s">
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="46"/>
+      <c r="S17" s="52"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:17">
-      <c r="A17" s="20" t="s">
+    <row r="18" ht="17.25" customHeight="1" spans="3:19">
+      <c r="C18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="21" t="str">
+      <c r="D18" s="22" t="str">
         <f>IF(_peiliao_day_each!A16="","",_peiliao_day_each!A16)</f>
         <v/>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22" t="str">
+      <c r="E18" s="23"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25" t="str">
         <f>IF(_peiliao_day_each!B16="","",IF(_peiliao_day_each!B16=0,"",_peiliao_day_each!B16))</f>
         <v/>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23" t="s">
+      <c r="H18" s="26"/>
+      <c r="I18" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="22" t="str">
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="42" t="str">
         <f>IF(_peiliao_day_each!C16="","",IF(_peiliao_day_each!C16=0,"",_peiliao_day_each!C16))</f>
         <v/>
       </c>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="23" t="s">
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="46"/>
+      <c r="S18" s="52"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:17">
-      <c r="A18" s="20" t="s">
+    <row r="19" ht="17.25" customHeight="1" spans="3:19">
+      <c r="C19" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="21" t="str">
+      <c r="D19" s="22" t="str">
         <f>IF(_peiliao_day_each!A17="","",_peiliao_day_each!A17)</f>
         <v/>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22" t="str">
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25" t="str">
         <f>IF(_peiliao_day_each!B17="","",IF(_peiliao_day_each!B17=0,"",_peiliao_day_each!B17))</f>
         <v/>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23" t="s">
+      <c r="H19" s="26"/>
+      <c r="I19" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="47"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="53"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:17">
-      <c r="A19" s="20" t="s">
+    <row r="20" ht="17.25" customHeight="1" spans="3:19">
+      <c r="C20" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="21" t="str">
+      <c r="D20" s="22" t="str">
         <f>IF(_peiliao_day_each!A18="","",_peiliao_day_each!A18)</f>
         <v/>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22" t="str">
+      <c r="E20" s="23"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25" t="str">
         <f>IF(_peiliao_day_each!B18="","",IF(_peiliao_day_each!B18=0,"",_peiliao_day_each!B18))</f>
         <v/>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23" t="s">
+      <c r="H20" s="26"/>
+      <c r="I20" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="48"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="54"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:17">
-      <c r="A20" s="20" t="s">
+    <row r="21" ht="17.25" customHeight="1" spans="3:19">
+      <c r="C21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="21" t="str">
+      <c r="D21" s="22" t="str">
         <f>IF(_peiliao_day_each!A19="","",_peiliao_day_each!A19)</f>
         <v/>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22" t="str">
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25" t="str">
         <f>IF(_peiliao_day_each!B19="","",IF(_peiliao_day_each!B19=0,"",_peiliao_day_each!B19))</f>
         <v/>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23" t="s">
+      <c r="H21" s="26"/>
+      <c r="I21" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="48"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="54"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:17">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="48"/>
+    <row r="22" ht="15" customHeight="1" spans="3:19">
+      <c r="C22" s="11"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="54"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="15" customHeight="1" spans="1:17">
-      <c r="A22" s="28" t="s">
+    <row r="23" ht="17.25" customHeight="1" spans="3:19">
+      <c r="C23" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="6" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="40" t="s">
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="40"/>
-      <c r="M22" s="41" t="str">
+      <c r="N23" s="45"/>
+      <c r="O23" s="46" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="49" t="str">
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="55" t="str">
         <f>IF(_metadata!$B$1="","",IF(HOUR(_metadata!$B$1)&lt;8,"夜班",IF(HOUR(_metadata!$B$1)&gt;16,"中班","白班")))</f>
         <v/>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:22">
-      <c r="A23" s="28" t="s">
+    <row r="24" ht="20.25" customHeight="1" spans="3:19">
+      <c r="C24" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="27" t="s">
+      <c r="D24" s="12"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="31" t="str">
-        <f ca="1">M22</f>
-        <v/>
-      </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="42" t="s">
+      <c r="H24" s="33" t="str">
+        <f>O23</f>
+        <v/>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="27"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="27" t="s">
+      <c r="M24" s="47"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="50"/>
-      <c r="V23" s="51">
-        <v>0.00138888888888889</v>
-      </c>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="57"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="15" customHeight="1" spans="1:17">
-      <c r="A24" s="28" t="s">
+    <row r="25" ht="25.5" customHeight="1" spans="3:19">
+      <c r="C25" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="27" t="s">
+      <c r="D25" s="12"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="33" t="s">
+      <c r="H25" s="17"/>
+      <c r="I25" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="J25" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="42" t="s">
+      <c r="K25" s="12"/>
+      <c r="L25" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="27" t="s">
+      <c r="M25" s="47"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="O24" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="52"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25" s="59" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="8.25" customHeight="1" spans="1:17">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="53"/>
+    <row r="26" ht="15" spans="3:19">
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="60"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="G12:I17" name="区域1" securityDescriptor=""/>
+    <protectedRange sqref="J13:K18" name="区域1" securityDescriptor=""/>
   </protectedRanges>
-  <mergeCells count="56">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:P22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="A7:B8"/>
+  <mergeCells count="57">
+    <mergeCell ref="C2:S2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="C8:D9"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3063,7 +2850,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3079,7 +2866,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3102,7 +2889,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1">
         <v>8</v>

--- a/excel/finished/8高炉/配料单报表.xlsx
+++ b/excel/finished/8高炉/配料单报表.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\template\8高炉\炉内报表\cn_zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B177B5-39BF-45EA-8895-D3274140B8E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F40C2B-B2AB-419B-98C1-1C3ACF4FFFE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="_peiliao_day_each" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="_peiliao_day_each" sheetId="3" r:id="rId2"/>
     <sheet name="_metadata" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="_dictionary" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>8BF变料单</t>
   </si>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>焦比</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>硅石</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -139,10 +135,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>开始批次：</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>t/t</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -231,15 +223,31 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>R2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Al2O3</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>%</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>大焦比/焦丁比</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印时间:</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始批次:</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间:</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2/R4</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -803,113 +811,116 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1513,7 +1524,7 @@
   <dimension ref="B1:AL38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:G26"/>
+      <selection activeCell="V26" sqref="V26:W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1532,33 +1543,33 @@
   <sheetData>
     <row r="1" spans="2:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="51"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="77"/>
       <c r="AD2" s="11"/>
       <c r="AE2" s="11"/>
       <c r="AF2" s="11"/>
@@ -1571,11 +1582,11 @@
     </row>
     <row r="3" spans="2:38" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="36"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1779,7 +1790,7 @@
     </row>
     <row r="6" spans="2:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="36"/>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="24"/>
@@ -1819,7 +1830,7 @@
       </c>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
-      <c r="Q6" s="71" t="s">
+      <c r="Q6" s="52" t="s">
         <v>6</v>
       </c>
       <c r="R6" s="5" t="str">
@@ -1861,7 +1872,7 @@
     </row>
     <row r="7" spans="2:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
-      <c r="C7" s="69"/>
+      <c r="C7" s="50"/>
       <c r="D7" s="25"/>
       <c r="E7" s="8" t="str">
         <f>IF(_peiliao_day_each!A3="","",_peiliao_day_each!A3)</f>
@@ -1899,7 +1910,7 @@
       </c>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
-      <c r="Q7" s="71"/>
+      <c r="Q7" s="52"/>
       <c r="R7" s="8" t="str">
         <f>IF(_peiliao_day_each!A6="","",_peiliao_day_each!A6)</f>
         <v/>
@@ -1939,7 +1950,7 @@
     </row>
     <row r="8" spans="2:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="36"/>
-      <c r="C8" s="70"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="19"/>
       <c r="E8" s="8" t="str">
         <f>IF(_peiliao_day_each!A4="","",_peiliao_day_each!A4)</f>
@@ -1977,7 +1988,7 @@
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="72"/>
+      <c r="Q8" s="53"/>
       <c r="R8" s="8" t="str">
         <f>IF(_peiliao_day_each!A7="","",_peiliao_day_each!A7)</f>
         <v/>
@@ -2053,22 +2064,22 @@
     </row>
     <row r="10" spans="2:38" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="36"/>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="73" t="s">
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="74" t="str">
+      <c r="G10" s="54"/>
+      <c r="H10" s="55" t="str">
         <f>IF(_peiliao_day_each!G1="","",_peiliao_day_each!G1)</f>
         <v/>
       </c>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
       <c r="L10" s="13"/>
       <c r="M10" s="12" t="s">
         <v>9</v>
@@ -2105,20 +2116,20 @@
     </row>
     <row r="11" spans="2:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="36"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="73" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="74" t="str">
+      <c r="G11" s="54"/>
+      <c r="H11" s="55" t="str">
         <f>IF(_peiliao_day_each!H1="","",_peiliao_day_each!H1)</f>
         <v/>
       </c>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="13"/>
       <c r="M11" s="12" t="s">
         <v>9</v>
@@ -2155,11 +2166,11 @@
     </row>
     <row r="12" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="36"/>
-      <c r="C12" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
+      <c r="C12" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -2170,11 +2181,11 @@
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
-      <c r="P12" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
+      <c r="P12" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
@@ -2195,16 +2206,16 @@
     </row>
     <row r="13" spans="2:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="36"/>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="63" t="str">
+      <c r="D13" s="46"/>
+      <c r="E13" s="47" t="str">
         <f>IF(_peiliao_day_each!A9="","",_peiliao_day_each!A9)</f>
         <v/>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="62" t="str">
         <f>IF(_peiliao_day_each!B9="","",IF(_peiliao_day_each!B9=0,"",_peiliao_day_each!B9))</f>
         <v/>
@@ -2223,15 +2234,15 @@
       </c>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
-      <c r="P13" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="81" t="str">
+      <c r="P13" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="63" t="str">
         <f>IF(_peiliao_day_each!A29="","",_peiliao_day_each!A29)</f>
         <v/>
       </c>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
       <c r="T13" s="62" t="str">
         <f>IF(_peiliao_day_each!B29="","",_peiliao_day_each!B29)</f>
         <v/>
@@ -2240,11 +2251,11 @@
       <c r="V13" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="W13" s="46" t="str">
+      <c r="W13" s="68" t="str">
         <f>IF(_peiliao_day_each!C29="","",_peiliao_day_each!C29)</f>
         <v/>
       </c>
-      <c r="X13" s="46"/>
+      <c r="X13" s="68"/>
       <c r="Y13" s="44" t="s">
         <v>13</v>
       </c>
@@ -2261,16 +2272,16 @@
     </row>
     <row r="14" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="36"/>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="63" t="str">
+      <c r="D14" s="46"/>
+      <c r="E14" s="47" t="str">
         <f>IF(_peiliao_day_each!A10="","",_peiliao_day_each!A10)</f>
         <v/>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
       <c r="H14" s="62" t="str">
         <f>IF(_peiliao_day_each!B10="","",IF(_peiliao_day_each!B10=0,"",_peiliao_day_each!B10))</f>
         <v/>
@@ -2289,13 +2300,13 @@
       </c>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="81" t="str">
+      <c r="P14" s="46"/>
+      <c r="Q14" s="63" t="str">
         <f>IF(_peiliao_day_each!A30="","",_peiliao_day_each!A30)</f>
         <v/>
       </c>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
       <c r="T14" s="62" t="str">
         <f>IF(_peiliao_day_each!B30="","",_peiliao_day_each!B30)</f>
         <v/>
@@ -2304,11 +2315,11 @@
       <c r="V14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="W14" s="46" t="str">
+      <c r="W14" s="68" t="str">
         <f>IF(_peiliao_day_each!C30="","",_peiliao_day_each!C30)</f>
         <v/>
       </c>
-      <c r="X14" s="46"/>
+      <c r="X14" s="68"/>
       <c r="Y14" s="44" t="s">
         <v>13</v>
       </c>
@@ -2327,16 +2338,16 @@
     </row>
     <row r="15" spans="2:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="36"/>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="63" t="str">
+      <c r="D15" s="46"/>
+      <c r="E15" s="47" t="str">
         <f>IF(_peiliao_day_each!A11="","",_peiliao_day_each!A11)</f>
         <v/>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="62" t="str">
         <f>IF(_peiliao_day_each!B11="","",IF(_peiliao_day_each!B11=0,"",_peiliao_day_each!B11))</f>
         <v/>
@@ -2355,13 +2366,13 @@
       </c>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="81" t="str">
+      <c r="P15" s="46"/>
+      <c r="Q15" s="63" t="str">
         <f>IF(_peiliao_day_each!A31="","",_peiliao_day_each!A31)</f>
         <v/>
       </c>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
       <c r="T15" s="62" t="str">
         <f>IF(_peiliao_day_each!B31="","",_peiliao_day_each!B31)</f>
         <v/>
@@ -2370,11 +2381,11 @@
       <c r="V15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="W15" s="46" t="str">
+      <c r="W15" s="68" t="str">
         <f>IF(_peiliao_day_each!C31="","",_peiliao_day_each!C31)</f>
         <v/>
       </c>
-      <c r="X15" s="46"/>
+      <c r="X15" s="68"/>
       <c r="Y15" s="44" t="s">
         <v>13</v>
       </c>
@@ -2393,16 +2404,16 @@
     </row>
     <row r="16" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="36"/>
-      <c r="C16" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="63" t="str">
+      <c r="C16" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47" t="str">
         <f>IF(_peiliao_day_each!A12="","",_peiliao_day_each!A12)</f>
         <v/>
       </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
       <c r="H16" s="62" t="str">
         <f>IF(_peiliao_day_each!B12="","",IF(_peiliao_day_each!B12=0,"",_peiliao_day_each!B12))</f>
         <v/>
@@ -2421,13 +2432,13 @@
       </c>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
-      <c r="P16" s="61" t="str">
+      <c r="P16" s="46" t="str">
         <f>IF(_peiliao_day_each!A32="","",_peiliao_day_each!A32)</f>
         <v/>
       </c>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
       <c r="T16" s="62" t="str">
         <f>IF(_peiliao_day_each!B32="","",_peiliao_day_each!B32)</f>
         <v/>
@@ -2436,11 +2447,11 @@
       <c r="V16" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="W16" s="46" t="str">
+      <c r="W16" s="68" t="str">
         <f>IF(_peiliao_day_each!C32="","",_peiliao_day_each!C32)</f>
         <v/>
       </c>
-      <c r="X16" s="46"/>
+      <c r="X16" s="68"/>
       <c r="Y16" s="44" t="s">
         <v>13</v>
       </c>
@@ -2459,16 +2470,16 @@
     </row>
     <row r="17" spans="2:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="36"/>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="63" t="str">
+      <c r="D17" s="46"/>
+      <c r="E17" s="47" t="str">
         <f>IF(_peiliao_day_each!A13="","",_peiliao_day_each!A13)</f>
         <v/>
       </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
       <c r="H17" s="62" t="str">
         <f>IF(_peiliao_day_each!B13="","",IF(_peiliao_day_each!B13=0,"",_peiliao_day_each!B13))</f>
         <v/>
@@ -2513,16 +2524,16 @@
     </row>
     <row r="18" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="36"/>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="63" t="str">
+      <c r="D18" s="46"/>
+      <c r="E18" s="47" t="str">
         <f>IF(_peiliao_day_each!A14="","",_peiliao_day_each!A14)</f>
         <v/>
       </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
       <c r="H18" s="62" t="str">
         <f>IF(_peiliao_day_each!B14="","",IF(_peiliao_day_each!B14=0,"",_peiliao_day_each!B14))</f>
         <v/>
@@ -2541,33 +2552,33 @@
       </c>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
-      <c r="P18" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="46" t="str">
+      <c r="P18" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="68" t="str">
         <f>IF(_peiliao_day_each!A33="","",_peiliao_day_each!A33)</f>
         <v/>
       </c>
-      <c r="S18" s="46"/>
+      <c r="S18" s="68"/>
       <c r="T18" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="U18" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="V18" s="58"/>
-      <c r="W18" s="59" t="str">
+      <c r="U18" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="V18" s="70"/>
+      <c r="W18" s="71" t="str">
         <f>IF(_peiliao_day_each!H33="","",_peiliao_day_each!H33)</f>
         <v/>
       </c>
-      <c r="X18" s="60"/>
+      <c r="X18" s="72"/>
       <c r="Y18" s="45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Z18" s="37"/>
-      <c r="AA18" s="64"/>
-      <c r="AB18" s="64"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="67"/>
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
@@ -2581,16 +2592,16 @@
     </row>
     <row r="19" spans="2:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="36"/>
-      <c r="C19" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="63" t="str">
+      <c r="C19" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47" t="str">
         <f>IF(_peiliao_day_each!A15="","",_peiliao_day_each!A15)</f>
         <v/>
       </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="62" t="str">
         <f>IF(_peiliao_day_each!B15="","",IF(_peiliao_day_each!B15=0,"",_peiliao_day_each!B15))</f>
         <v/>
@@ -2609,29 +2620,29 @@
       </c>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
-      <c r="P19" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="46" t="str">
+      <c r="P19" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="68" t="str">
         <f>IF(_peiliao_day_each!B33="","",_peiliao_day_each!B33)</f>
         <v/>
       </c>
-      <c r="S19" s="46"/>
+      <c r="S19" s="68"/>
       <c r="T19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="U19" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="V19" s="58"/>
-      <c r="W19" s="59" t="str">
+      <c r="U19" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" s="70"/>
+      <c r="W19" s="71" t="str">
         <f>IF(_peiliao_day_each!I33="","",_peiliao_day_each!I33)</f>
         <v/>
       </c>
-      <c r="X19" s="60"/>
+      <c r="X19" s="72"/>
       <c r="Y19" s="45" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z19" s="37"/>
       <c r="AA19" s="15"/>
@@ -2649,16 +2660,16 @@
     </row>
     <row r="20" spans="2:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="36"/>
-      <c r="C20" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="63" t="str">
+      <c r="C20" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47" t="str">
         <f>IF(_peiliao_day_each!A16="","",_peiliao_day_each!A16)</f>
         <v/>
       </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
       <c r="H20" s="62" t="str">
         <f>IF(_peiliao_day_each!B16="","",IF(_peiliao_day_each!B16=0,"",_peiliao_day_each!B16))</f>
         <v/>
@@ -2677,29 +2688,29 @@
       </c>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
-      <c r="P20" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="46" t="str">
+      <c r="P20" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="68" t="str">
         <f>IF(_peiliao_day_each!C33="","",_peiliao_day_each!C33)</f>
         <v/>
       </c>
-      <c r="S20" s="46"/>
+      <c r="S20" s="68"/>
       <c r="T20" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="U20" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="V20" s="58"/>
-      <c r="W20" s="59" t="str">
+        <v>31</v>
+      </c>
+      <c r="U20" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="V20" s="70"/>
+      <c r="W20" s="71" t="str">
         <f>IF(_peiliao_day_each!J33="","",_peiliao_day_each!J33)</f>
         <v/>
       </c>
-      <c r="X20" s="60"/>
+      <c r="X20" s="72"/>
       <c r="Y20" s="45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z20" s="37"/>
       <c r="AA20" s="15"/>
@@ -2717,16 +2728,16 @@
     </row>
     <row r="21" spans="2:38" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="36"/>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="63" t="str">
+      <c r="D21" s="46"/>
+      <c r="E21" s="47" t="str">
         <f>IF(_peiliao_day_each!A17="","",_peiliao_day_each!A17)</f>
         <v/>
       </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="62" t="str">
         <f>IF(_peiliao_day_each!B17="","",IF(_peiliao_day_each!B17=0,"",_peiliao_day_each!B17))</f>
         <v/>
@@ -2745,29 +2756,29 @@
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
-      <c r="P21" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="46" t="str">
+      <c r="P21" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="68" t="str">
         <f>IF(_peiliao_day_each!D33="","",_peiliao_day_each!D33)</f>
         <v/>
       </c>
-      <c r="S21" s="46"/>
+      <c r="S21" s="68"/>
       <c r="T21" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="U21" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="V21" s="61"/>
-      <c r="W21" s="46" t="str">
+        <v>32</v>
+      </c>
+      <c r="U21" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="V21" s="46"/>
+      <c r="W21" s="68" t="str">
         <f>IF(_peiliao_day_each!K33="","",_peiliao_day_each!K33)</f>
         <v/>
       </c>
-      <c r="X21" s="46"/>
+      <c r="X21" s="68"/>
       <c r="Y21" s="45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z21" s="37"/>
       <c r="AA21" s="15"/>
@@ -2775,16 +2786,16 @@
     </row>
     <row r="22" spans="2:38" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="36"/>
-      <c r="C22" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="63" t="str">
+      <c r="C22" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="47" t="str">
         <f>IF(_peiliao_day_each!A18="","",_peiliao_day_each!A18)</f>
         <v/>
       </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
       <c r="H22" s="62" t="str">
         <f>IF(_peiliao_day_each!B18="","",IF(_peiliao_day_each!B18=0,"",_peiliao_day_each!B18))</f>
         <v/>
@@ -2803,44 +2814,44 @@
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
-      <c r="P22" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="46" t="str">
+      <c r="P22" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="68" t="str">
         <f>IF(_peiliao_day_each!E33="","",_peiliao_day_each!E33)</f>
         <v/>
       </c>
-      <c r="S22" s="46"/>
+      <c r="S22" s="68"/>
       <c r="T22" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="U22" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="V22" s="61"/>
-      <c r="W22" s="46" t="str">
+      <c r="U22" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="V22" s="46"/>
+      <c r="W22" s="68" t="str">
         <f>IF(_peiliao_day_each!L33="","",_peiliao_day_each!L33)</f>
         <v/>
       </c>
-      <c r="X22" s="46"/>
+      <c r="X22" s="68"/>
       <c r="Y22" s="45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z22" s="37"/>
     </row>
     <row r="23" spans="2:38" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="36"/>
-      <c r="C23" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="63" t="str">
+      <c r="C23" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="47" t="str">
         <f>IF(_peiliao_day_each!A19="","",_peiliao_day_each!A19)</f>
         <v/>
       </c>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
       <c r="H23" s="62" t="str">
         <f>IF(_peiliao_day_each!B19="","",IF(_peiliao_day_each!B19=0,"",_peiliao_day_each!B19))</f>
         <v/>
@@ -2859,42 +2870,42 @@
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
-      <c r="P23" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="46" t="str">
+      <c r="P23" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="68" t="str">
         <f>IF(_peiliao_day_each!F33="","",_peiliao_day_each!F33)</f>
         <v/>
       </c>
-      <c r="S23" s="46"/>
+      <c r="S23" s="68"/>
       <c r="T23" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="U23" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="V23" s="58"/>
-      <c r="W23" s="59" t="str">
+      <c r="U23" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" s="70"/>
+      <c r="W23" s="71" t="str">
         <f>IF(_peiliao_day_each!M33="","",_peiliao_day_each!M33)</f>
         <v/>
       </c>
-      <c r="X23" s="60"/>
+      <c r="X23" s="72"/>
       <c r="Y23" s="45"/>
       <c r="Z23" s="37"/>
     </row>
     <row r="24" spans="2:38" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="36"/>
-      <c r="C24" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="63" t="str">
+      <c r="C24" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="46"/>
+      <c r="E24" s="47" t="str">
         <f>IF(_peiliao_day_each!A20="","",_peiliao_day_each!A20)</f>
         <v/>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
       <c r="H24" s="62" t="str">
         <f>IF(_peiliao_day_each!B20="","",IF(_peiliao_day_each!B20=0,"",_peiliao_day_each!B20))</f>
         <v/>
@@ -2913,29 +2924,29 @@
       </c>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
-      <c r="P24" s="61" t="s">
+      <c r="P24" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="68" t="str">
+        <f>IF(_peiliao_day_each!G33="","",_peiliao_day_each!G33)</f>
+        <v/>
+      </c>
+      <c r="S24" s="68"/>
+      <c r="T24" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="46" t="str">
-        <f>IF(_peiliao_day_each!G33="","",_peiliao_day_each!G33)</f>
-        <v/>
-      </c>
-      <c r="S24" s="46"/>
-      <c r="T24" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="U24" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="V24" s="61"/>
-      <c r="W24" s="46" t="str">
+      <c r="U24" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="V24" s="46"/>
+      <c r="W24" s="68" t="str">
         <f>IF(_peiliao_day_each!N33="","",_peiliao_day_each!N33)</f>
         <v/>
       </c>
-      <c r="X24" s="46"/>
+      <c r="X24" s="68"/>
       <c r="Y24" s="45" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Z24" s="37"/>
     </row>
@@ -2968,10 +2979,10 @@
     </row>
     <row r="26" spans="2:38" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="36"/>
-      <c r="C26" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="54"/>
+      <c r="C26" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="64"/>
       <c r="E26" s="66"/>
       <c r="F26" s="66"/>
       <c r="G26" s="66"/>
@@ -2985,52 +2996,52 @@
       <c r="M26" s="16"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="R26" s="52" t="str">
+      <c r="P26" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="78" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15" t="str">
-        <f>IF(_metadata!$B$1="","",IF(HOUR(_metadata!$B$1)&lt;8,"夜班",IF(HOUR(_metadata!$B$1)&gt;16,"中班","白班")))</f>
-        <v/>
-      </c>
-      <c r="X26" s="15"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+      <c r="U26" s="78"/>
+      <c r="V26" s="74" t="str">
+        <f>IF(_peiliao_day_each!O33="","",_peiliao_day_each!O33)</f>
+        <v/>
+      </c>
+      <c r="W26" s="74"/>
+      <c r="X26" s="26"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="37"/>
     </row>
     <row r="27" spans="2:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="36"/>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
       <c r="H27" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="56" t="str">
+        <v>58</v>
+      </c>
+      <c r="I27" s="81" t="str">
         <f>R26</f>
         <v/>
       </c>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
       <c r="M27" s="29"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
-      <c r="P27" s="47" t="s">
+      <c r="P27" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="Q27" s="47"/>
+      <c r="Q27" s="73"/>
       <c r="R27" s="32"/>
       <c r="S27" s="31"/>
       <c r="T27" s="32"/>
@@ -3056,19 +3067,19 @@
     </row>
     <row r="28" spans="2:38" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="36"/>
-      <c r="C28" s="54" t="s">
+      <c r="C28" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="54"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="65"/>
       <c r="F28" s="65"/>
       <c r="G28" s="65"/>
-      <c r="H28" s="27" t="s">
-        <v>15</v>
+      <c r="H28" s="82" t="s">
+        <v>58</v>
       </c>
       <c r="I28" s="27"/>
       <c r="J28" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K28" s="27"/>
       <c r="L28" s="30" t="s">
@@ -3077,10 +3088,10 @@
       <c r="M28" s="16"/>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="48" t="s">
+      <c r="P28" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="Q28" s="48"/>
+      <c r="Q28" s="74"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
       <c r="T28" s="33"/>
@@ -3244,7 +3255,96 @@
       <c r="AB38" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="111">
+  <mergeCells count="113">
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="V26:W26"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="B2:Z2"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E17:G17"/>
@@ -3269,93 +3369,6 @@
     <mergeCell ref="Q13:S13"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="B2:Z2"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
@@ -3369,8 +3382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/finished/8高炉/配料单报表.xlsx
+++ b/excel/finished/8高炉/配料单报表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\template\8高炉\炉内报表\cn_zh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F40C2B-B2AB-419B-98C1-1C3ACF4FFFE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D069B696-B0A2-4E91-B6B1-8797FBA2B15E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="-120" windowWidth="27720" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -811,10 +811,73 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -858,69 +921,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1524,7 +1524,7 @@
   <dimension ref="B1:AL38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26:W26"/>
+      <selection activeCell="K13" sqref="K13:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1543,33 +1543,33 @@
   <sheetData>
     <row r="1" spans="2:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="77"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="52"/>
       <c r="AD2" s="11"/>
       <c r="AE2" s="11"/>
       <c r="AF2" s="11"/>
@@ -1582,11 +1582,11 @@
     </row>
     <row r="3" spans="2:38" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="36"/>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="6" spans="2:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="36"/>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="70" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="24"/>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
-      <c r="Q6" s="52" t="s">
+      <c r="Q6" s="73" t="s">
         <v>6</v>
       </c>
       <c r="R6" s="5" t="str">
@@ -1872,7 +1872,7 @@
     </row>
     <row r="7" spans="2:38" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="36"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="25"/>
       <c r="E7" s="8" t="str">
         <f>IF(_peiliao_day_each!A3="","",_peiliao_day_each!A3)</f>
@@ -1910,7 +1910,7 @@
       </c>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
-      <c r="Q7" s="52"/>
+      <c r="Q7" s="73"/>
       <c r="R7" s="8" t="str">
         <f>IF(_peiliao_day_each!A6="","",_peiliao_day_each!A6)</f>
         <v/>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="8" spans="2:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="36"/>
-      <c r="C8" s="51"/>
+      <c r="C8" s="72"/>
       <c r="D8" s="19"/>
       <c r="E8" s="8" t="str">
         <f>IF(_peiliao_day_each!A4="","",_peiliao_day_each!A4)</f>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="53"/>
+      <c r="Q8" s="74"/>
       <c r="R8" s="8" t="str">
         <f>IF(_peiliao_day_each!A7="","",_peiliao_day_each!A7)</f>
         <v/>
@@ -2064,22 +2064,22 @@
     </row>
     <row r="10" spans="2:38" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="36"/>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="54" t="s">
+      <c r="D10" s="78"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="55" t="str">
+      <c r="G10" s="75"/>
+      <c r="H10" s="76" t="str">
         <f>IF(_peiliao_day_each!G1="","",_peiliao_day_each!G1)</f>
         <v/>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
       <c r="L10" s="13"/>
       <c r="M10" s="12" t="s">
         <v>9</v>
@@ -2116,20 +2116,20 @@
     </row>
     <row r="11" spans="2:38" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="36"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="54" t="s">
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="55" t="str">
+      <c r="G11" s="75"/>
+      <c r="H11" s="76" t="str">
         <f>IF(_peiliao_day_each!H1="","",_peiliao_day_each!H1)</f>
         <v/>
       </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
       <c r="L11" s="13"/>
       <c r="M11" s="12" t="s">
         <v>9</v>
@@ -2166,11 +2166,11 @@
     </row>
     <row r="12" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="36"/>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
@@ -2181,11 +2181,11 @@
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
-      <c r="P12" s="79" t="s">
+      <c r="P12" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="79"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
@@ -2206,56 +2206,56 @@
     </row>
     <row r="13" spans="2:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="36"/>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47" t="str">
+      <c r="D13" s="62"/>
+      <c r="E13" s="64" t="str">
         <f>IF(_peiliao_day_each!A9="","",_peiliao_day_each!A9)</f>
         <v/>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="62" t="str">
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="63" t="str">
         <f>IF(_peiliao_day_each!B9="","",IF(_peiliao_day_each!B9=0,"",_peiliao_day_each!B9))</f>
         <v/>
       </c>
-      <c r="I13" s="62"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="62" t="str">
-        <f t="shared" ref="K13:K18" si="0">IFERROR((H13/$Y$2)*100,"")</f>
-        <v/>
-      </c>
-      <c r="L13" s="62"/>
+      <c r="K13" s="63" t="str">
+        <f>IF(_peiliao_day_each!C9="","",IF(_peiliao_day_each!C9=0,"",_peiliao_day_each!C9))</f>
+        <v/>
+      </c>
+      <c r="L13" s="63"/>
       <c r="M13" s="43" t="s">
         <v>13</v>
       </c>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
-      <c r="P13" s="46" t="s">
+      <c r="P13" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="Q13" s="63" t="str">
+      <c r="Q13" s="66" t="str">
         <f>IF(_peiliao_day_each!A29="","",_peiliao_day_each!A29)</f>
         <v/>
       </c>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="62" t="str">
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="63" t="str">
         <f>IF(_peiliao_day_each!B29="","",_peiliao_day_each!B29)</f>
         <v/>
       </c>
-      <c r="U13" s="62"/>
+      <c r="U13" s="63"/>
       <c r="V13" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="W13" s="68" t="str">
+      <c r="W13" s="48" t="str">
         <f>IF(_peiliao_day_each!C29="","",_peiliao_day_each!C29)</f>
         <v/>
       </c>
-      <c r="X13" s="68"/>
+      <c r="X13" s="48"/>
       <c r="Y13" s="44" t="s">
         <v>13</v>
       </c>
@@ -2272,54 +2272,54 @@
     </row>
     <row r="14" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="36"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47" t="str">
+      <c r="D14" s="62"/>
+      <c r="E14" s="64" t="str">
         <f>IF(_peiliao_day_each!A10="","",_peiliao_day_each!A10)</f>
         <v/>
       </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="62" t="str">
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="63" t="str">
         <f>IF(_peiliao_day_each!B10="","",IF(_peiliao_day_each!B10=0,"",_peiliao_day_each!B10))</f>
         <v/>
       </c>
-      <c r="I14" s="62"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L14" s="62"/>
+      <c r="K14" s="63" t="str">
+        <f>IF(_peiliao_day_each!C10="","",IF(_peiliao_day_each!C10=0,"",_peiliao_day_each!C10))</f>
+        <v/>
+      </c>
+      <c r="L14" s="63"/>
       <c r="M14" s="43" t="s">
         <v>13</v>
       </c>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="63" t="str">
+      <c r="P14" s="62"/>
+      <c r="Q14" s="66" t="str">
         <f>IF(_peiliao_day_each!A30="","",_peiliao_day_each!A30)</f>
         <v/>
       </c>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="62" t="str">
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
+      <c r="T14" s="63" t="str">
         <f>IF(_peiliao_day_each!B30="","",_peiliao_day_each!B30)</f>
         <v/>
       </c>
-      <c r="U14" s="62"/>
+      <c r="U14" s="63"/>
       <c r="V14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="W14" s="68" t="str">
+      <c r="W14" s="48" t="str">
         <f>IF(_peiliao_day_each!C30="","",_peiliao_day_each!C30)</f>
         <v/>
       </c>
-      <c r="X14" s="68"/>
+      <c r="X14" s="48"/>
       <c r="Y14" s="44" t="s">
         <v>13</v>
       </c>
@@ -2338,54 +2338,54 @@
     </row>
     <row r="15" spans="2:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="36"/>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47" t="str">
+      <c r="D15" s="62"/>
+      <c r="E15" s="64" t="str">
         <f>IF(_peiliao_day_each!A11="","",_peiliao_day_each!A11)</f>
         <v/>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="62" t="str">
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="63" t="str">
         <f>IF(_peiliao_day_each!B11="","",IF(_peiliao_day_each!B11=0,"",_peiliao_day_each!B11))</f>
         <v/>
       </c>
-      <c r="I15" s="62"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L15" s="62"/>
+      <c r="K15" s="63" t="str">
+        <f>IF(_peiliao_day_each!C11="","",IF(_peiliao_day_each!C11=0,"",_peiliao_day_each!C11))</f>
+        <v/>
+      </c>
+      <c r="L15" s="63"/>
       <c r="M15" s="43" t="s">
         <v>13</v>
       </c>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="63" t="str">
+      <c r="P15" s="62"/>
+      <c r="Q15" s="66" t="str">
         <f>IF(_peiliao_day_each!A31="","",_peiliao_day_each!A31)</f>
         <v/>
       </c>
-      <c r="R15" s="46"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="62" t="str">
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="63" t="str">
         <f>IF(_peiliao_day_each!B31="","",_peiliao_day_each!B31)</f>
         <v/>
       </c>
-      <c r="U15" s="62"/>
+      <c r="U15" s="63"/>
       <c r="V15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="W15" s="68" t="str">
+      <c r="W15" s="48" t="str">
         <f>IF(_peiliao_day_each!C31="","",_peiliao_day_each!C31)</f>
         <v/>
       </c>
-      <c r="X15" s="68"/>
+      <c r="X15" s="48"/>
       <c r="Y15" s="44" t="s">
         <v>13</v>
       </c>
@@ -2404,54 +2404,54 @@
     </row>
     <row r="16" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="36"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47" t="str">
+      <c r="D16" s="62"/>
+      <c r="E16" s="64" t="str">
         <f>IF(_peiliao_day_each!A12="","",_peiliao_day_each!A12)</f>
         <v/>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="62" t="str">
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="63" t="str">
         <f>IF(_peiliao_day_each!B12="","",IF(_peiliao_day_each!B12=0,"",_peiliao_day_each!B12))</f>
         <v/>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L16" s="62"/>
+      <c r="K16" s="63" t="str">
+        <f>IF(_peiliao_day_each!C12="","",IF(_peiliao_day_each!C12=0,"",_peiliao_day_each!C12))</f>
+        <v/>
+      </c>
+      <c r="L16" s="63"/>
       <c r="M16" s="43" t="s">
         <v>13</v>
       </c>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
-      <c r="P16" s="46" t="str">
+      <c r="P16" s="62" t="str">
         <f>IF(_peiliao_day_each!A32="","",_peiliao_day_each!A32)</f>
         <v/>
       </c>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="62" t="str">
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
+      <c r="T16" s="63" t="str">
         <f>IF(_peiliao_day_each!B32="","",_peiliao_day_each!B32)</f>
         <v/>
       </c>
-      <c r="U16" s="62"/>
+      <c r="U16" s="63"/>
       <c r="V16" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="W16" s="68" t="str">
+      <c r="W16" s="48" t="str">
         <f>IF(_peiliao_day_each!C32="","",_peiliao_day_each!C32)</f>
         <v/>
       </c>
-      <c r="X16" s="68"/>
+      <c r="X16" s="48"/>
       <c r="Y16" s="44" t="s">
         <v>13</v>
       </c>
@@ -2470,29 +2470,29 @@
     </row>
     <row r="17" spans="2:38" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="36"/>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="47" t="str">
+      <c r="D17" s="62"/>
+      <c r="E17" s="64" t="str">
         <f>IF(_peiliao_day_each!A13="","",_peiliao_day_each!A13)</f>
         <v/>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="62" t="str">
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="63" t="str">
         <f>IF(_peiliao_day_each!B13="","",IF(_peiliao_day_each!B13=0,"",_peiliao_day_each!B13))</f>
         <v/>
       </c>
-      <c r="I17" s="62"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L17" s="62"/>
+      <c r="K17" s="63" t="str">
+        <f>IF(_peiliao_day_each!C13="","",IF(_peiliao_day_each!C13=0,"",_peiliao_day_each!C13))</f>
+        <v/>
+      </c>
+      <c r="L17" s="63"/>
       <c r="M17" s="43" t="s">
         <v>13</v>
       </c>
@@ -2524,61 +2524,61 @@
     </row>
     <row r="18" spans="2:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="36"/>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47" t="str">
+      <c r="D18" s="62"/>
+      <c r="E18" s="64" t="str">
         <f>IF(_peiliao_day_each!A14="","",_peiliao_day_each!A14)</f>
         <v/>
       </c>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="62" t="str">
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="63" t="str">
         <f>IF(_peiliao_day_each!B14="","",IF(_peiliao_day_each!B14=0,"",_peiliao_day_each!B14))</f>
         <v/>
       </c>
-      <c r="I18" s="62"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K18" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L18" s="62"/>
+      <c r="K18" s="63" t="str">
+        <f>IF(_peiliao_day_each!C14="","",IF(_peiliao_day_each!C14=0,"",_peiliao_day_each!C14))</f>
+        <v/>
+      </c>
+      <c r="L18" s="63"/>
       <c r="M18" s="43" t="s">
         <v>13</v>
       </c>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
-      <c r="P18" s="46" t="s">
+      <c r="P18" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="68" t="str">
+      <c r="Q18" s="62"/>
+      <c r="R18" s="48" t="str">
         <f>IF(_peiliao_day_each!A33="","",_peiliao_day_each!A33)</f>
         <v/>
       </c>
-      <c r="S18" s="68"/>
+      <c r="S18" s="48"/>
       <c r="T18" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="U18" s="69" t="s">
+      <c r="U18" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="70"/>
-      <c r="W18" s="71" t="str">
+      <c r="V18" s="59"/>
+      <c r="W18" s="60" t="str">
         <f>IF(_peiliao_day_each!H33="","",_peiliao_day_each!H33)</f>
         <v/>
       </c>
-      <c r="X18" s="72"/>
+      <c r="X18" s="61"/>
       <c r="Y18" s="45" t="s">
         <v>31</v>
       </c>
       <c r="Z18" s="37"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="67"/>
+      <c r="AA18" s="65"/>
+      <c r="AB18" s="65"/>
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
@@ -2592,55 +2592,55 @@
     </row>
     <row r="19" spans="2:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="36"/>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47" t="str">
+      <c r="D19" s="62"/>
+      <c r="E19" s="64" t="str">
         <f>IF(_peiliao_day_each!A15="","",_peiliao_day_each!A15)</f>
         <v/>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="62" t="str">
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="63" t="str">
         <f>IF(_peiliao_day_each!B15="","",IF(_peiliao_day_each!B15=0,"",_peiliao_day_each!B15))</f>
         <v/>
       </c>
-      <c r="I19" s="62"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="62" t="str">
+      <c r="K19" s="63" t="str">
         <f>IF(_peiliao_day_each!C15="","",IF(_peiliao_day_each!C15=0,"",_peiliao_day_each!C15))</f>
         <v/>
       </c>
-      <c r="L19" s="62"/>
+      <c r="L19" s="63"/>
       <c r="M19" s="43" t="s">
         <v>13</v>
       </c>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
-      <c r="P19" s="46" t="s">
+      <c r="P19" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="68" t="str">
+      <c r="Q19" s="62"/>
+      <c r="R19" s="48" t="str">
         <f>IF(_peiliao_day_each!B33="","",_peiliao_day_each!B33)</f>
         <v/>
       </c>
-      <c r="S19" s="68"/>
+      <c r="S19" s="48"/>
       <c r="T19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="U19" s="69" t="s">
+      <c r="U19" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="V19" s="70"/>
-      <c r="W19" s="71" t="str">
+      <c r="V19" s="59"/>
+      <c r="W19" s="60" t="str">
         <f>IF(_peiliao_day_each!I33="","",_peiliao_day_each!I33)</f>
         <v/>
       </c>
-      <c r="X19" s="72"/>
+      <c r="X19" s="61"/>
       <c r="Y19" s="45" t="s">
         <v>35</v>
       </c>
@@ -2660,55 +2660,55 @@
     </row>
     <row r="20" spans="2:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="36"/>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47" t="str">
+      <c r="D20" s="62"/>
+      <c r="E20" s="64" t="str">
         <f>IF(_peiliao_day_each!A16="","",_peiliao_day_each!A16)</f>
         <v/>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="62" t="str">
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="63" t="str">
         <f>IF(_peiliao_day_each!B16="","",IF(_peiliao_day_each!B16=0,"",_peiliao_day_each!B16))</f>
         <v/>
       </c>
-      <c r="I20" s="62"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="62" t="str">
+      <c r="K20" s="63" t="str">
         <f>IF(_peiliao_day_each!C16="","",IF(_peiliao_day_each!C16=0,"",_peiliao_day_each!C16))</f>
         <v/>
       </c>
-      <c r="L20" s="62"/>
+      <c r="L20" s="63"/>
       <c r="M20" s="43" t="s">
         <v>13</v>
       </c>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
-      <c r="P20" s="46" t="s">
+      <c r="P20" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="68" t="str">
+      <c r="Q20" s="62"/>
+      <c r="R20" s="48" t="str">
         <f>IF(_peiliao_day_each!C33="","",_peiliao_day_each!C33)</f>
         <v/>
       </c>
-      <c r="S20" s="68"/>
+      <c r="S20" s="48"/>
       <c r="T20" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="U20" s="69" t="s">
+      <c r="U20" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="V20" s="70"/>
-      <c r="W20" s="71" t="str">
+      <c r="V20" s="59"/>
+      <c r="W20" s="60" t="str">
         <f>IF(_peiliao_day_each!J33="","",_peiliao_day_each!J33)</f>
         <v/>
       </c>
-      <c r="X20" s="72"/>
+      <c r="X20" s="61"/>
       <c r="Y20" s="45" t="s">
         <v>52</v>
       </c>
@@ -2728,55 +2728,55 @@
     </row>
     <row r="21" spans="2:38" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="36"/>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47" t="str">
+      <c r="D21" s="62"/>
+      <c r="E21" s="64" t="str">
         <f>IF(_peiliao_day_each!A17="","",_peiliao_day_each!A17)</f>
         <v/>
       </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="62" t="str">
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="63" t="str">
         <f>IF(_peiliao_day_each!B17="","",IF(_peiliao_day_each!B17=0,"",_peiliao_day_each!B17))</f>
         <v/>
       </c>
-      <c r="I21" s="62"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K21" s="62" t="str">
+      <c r="K21" s="63" t="str">
         <f>IF(_peiliao_day_each!C17="","",IF(_peiliao_day_each!C17=0,"",_peiliao_day_each!C17))</f>
         <v/>
       </c>
-      <c r="L21" s="62"/>
+      <c r="L21" s="63"/>
       <c r="M21" s="43" t="s">
         <v>13</v>
       </c>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
-      <c r="P21" s="46" t="s">
+      <c r="P21" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="68" t="str">
+      <c r="Q21" s="62"/>
+      <c r="R21" s="48" t="str">
         <f>IF(_peiliao_day_each!D33="","",_peiliao_day_each!D33)</f>
         <v/>
       </c>
-      <c r="S21" s="68"/>
+      <c r="S21" s="48"/>
       <c r="T21" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="U21" s="46" t="s">
+      <c r="U21" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="V21" s="46"/>
-      <c r="W21" s="68" t="str">
+      <c r="V21" s="62"/>
+      <c r="W21" s="48" t="str">
         <f>IF(_peiliao_day_each!K33="","",_peiliao_day_each!K33)</f>
         <v/>
       </c>
-      <c r="X21" s="68"/>
+      <c r="X21" s="48"/>
       <c r="Y21" s="45" t="s">
         <v>32</v>
       </c>
@@ -2786,55 +2786,55 @@
     </row>
     <row r="22" spans="2:38" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="36"/>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="47" t="str">
+      <c r="D22" s="62"/>
+      <c r="E22" s="64" t="str">
         <f>IF(_peiliao_day_each!A18="","",_peiliao_day_each!A18)</f>
         <v/>
       </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="62" t="str">
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="63" t="str">
         <f>IF(_peiliao_day_each!B18="","",IF(_peiliao_day_each!B18=0,"",_peiliao_day_each!B18))</f>
         <v/>
       </c>
-      <c r="I22" s="62"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K22" s="62" t="str">
+      <c r="K22" s="63" t="str">
         <f>IF(_peiliao_day_each!C18="","",IF(_peiliao_day_each!C18=0,"",_peiliao_day_each!C18))</f>
         <v/>
       </c>
-      <c r="L22" s="62"/>
+      <c r="L22" s="63"/>
       <c r="M22" s="43" t="s">
         <v>13</v>
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
-      <c r="P22" s="46" t="s">
+      <c r="P22" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="68" t="str">
+      <c r="Q22" s="62"/>
+      <c r="R22" s="48" t="str">
         <f>IF(_peiliao_day_each!E33="","",_peiliao_day_each!E33)</f>
         <v/>
       </c>
-      <c r="S22" s="68"/>
+      <c r="S22" s="48"/>
       <c r="T22" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="U22" s="46" t="s">
+      <c r="U22" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="V22" s="46"/>
-      <c r="W22" s="68" t="str">
+      <c r="V22" s="62"/>
+      <c r="W22" s="48" t="str">
         <f>IF(_peiliao_day_each!L33="","",_peiliao_day_each!L33)</f>
         <v/>
       </c>
-      <c r="X22" s="68"/>
+      <c r="X22" s="48"/>
       <c r="Y22" s="45" t="s">
         <v>32</v>
       </c>
@@ -2842,109 +2842,109 @@
     </row>
     <row r="23" spans="2:38" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="36"/>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47" t="str">
+      <c r="D23" s="62"/>
+      <c r="E23" s="64" t="str">
         <f>IF(_peiliao_day_each!A19="","",_peiliao_day_each!A19)</f>
         <v/>
       </c>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="62" t="str">
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="63" t="str">
         <f>IF(_peiliao_day_each!B19="","",IF(_peiliao_day_each!B19=0,"",_peiliao_day_each!B19))</f>
         <v/>
       </c>
-      <c r="I23" s="62"/>
+      <c r="I23" s="63"/>
       <c r="J23" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="62" t="str">
+      <c r="K23" s="63" t="str">
         <f>IF(_peiliao_day_each!C19="","",IF(_peiliao_day_each!C19=0,"",_peiliao_day_each!C19))</f>
         <v/>
       </c>
-      <c r="L23" s="62"/>
+      <c r="L23" s="63"/>
       <c r="M23" s="43" t="s">
         <v>13</v>
       </c>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
-      <c r="P23" s="46" t="s">
+      <c r="P23" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="68" t="str">
+      <c r="Q23" s="62"/>
+      <c r="R23" s="48" t="str">
         <f>IF(_peiliao_day_each!F33="","",_peiliao_day_each!F33)</f>
         <v/>
       </c>
-      <c r="S23" s="68"/>
+      <c r="S23" s="48"/>
       <c r="T23" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="U23" s="69" t="s">
+      <c r="U23" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="V23" s="70"/>
-      <c r="W23" s="71" t="str">
+      <c r="V23" s="59"/>
+      <c r="W23" s="60" t="str">
         <f>IF(_peiliao_day_each!M33="","",_peiliao_day_each!M33)</f>
         <v/>
       </c>
-      <c r="X23" s="72"/>
+      <c r="X23" s="61"/>
       <c r="Y23" s="45"/>
       <c r="Z23" s="37"/>
     </row>
     <row r="24" spans="2:38" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="36"/>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="47" t="str">
+      <c r="D24" s="62"/>
+      <c r="E24" s="64" t="str">
         <f>IF(_peiliao_day_each!A20="","",_peiliao_day_each!A20)</f>
         <v/>
       </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="62" t="str">
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="63" t="str">
         <f>IF(_peiliao_day_each!B20="","",IF(_peiliao_day_each!B20=0,"",_peiliao_day_each!B20))</f>
         <v/>
       </c>
-      <c r="I24" s="62"/>
+      <c r="I24" s="63"/>
       <c r="J24" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K24" s="62" t="str">
+      <c r="K24" s="63" t="str">
         <f>IF(_peiliao_day_each!C20="","",IF(_peiliao_day_each!C20=0,"",_peiliao_day_each!C20))</f>
         <v/>
       </c>
-      <c r="L24" s="62"/>
+      <c r="L24" s="63"/>
       <c r="M24" s="43" t="s">
         <v>13</v>
       </c>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
-      <c r="P24" s="46" t="s">
+      <c r="P24" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="68" t="str">
+      <c r="Q24" s="62"/>
+      <c r="R24" s="48" t="str">
         <f>IF(_peiliao_day_each!G33="","",_peiliao_day_each!G33)</f>
         <v/>
       </c>
-      <c r="S24" s="68"/>
+      <c r="S24" s="48"/>
       <c r="T24" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="U24" s="46" t="s">
+      <c r="U24" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="V24" s="46"/>
-      <c r="W24" s="68" t="str">
+      <c r="V24" s="62"/>
+      <c r="W24" s="48" t="str">
         <f>IF(_peiliao_day_each!N33="","",_peiliao_day_each!N33)</f>
         <v/>
       </c>
-      <c r="X24" s="68"/>
+      <c r="X24" s="48"/>
       <c r="Y24" s="45" t="s">
         <v>54</v>
       </c>
@@ -2979,13 +2979,13 @@
     </row>
     <row r="26" spans="2:38" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="36"/>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="28" t="s">
         <v>14</v>
       </c>
@@ -2996,52 +2996,52 @@
       <c r="M26" s="16"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
-      <c r="P26" s="74" t="s">
+      <c r="P26" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="78" t="str">
+      <c r="Q26" s="47"/>
+      <c r="R26" s="53" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
-      <c r="U26" s="78"/>
-      <c r="V26" s="74" t="str">
+      <c r="S26" s="53"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="47" t="str">
         <f>IF(_peiliao_day_each!O33="","",_peiliao_day_each!O33)</f>
         <v/>
       </c>
-      <c r="W26" s="74"/>
+      <c r="W26" s="47"/>
       <c r="X26" s="26"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="37"/>
     </row>
     <row r="27" spans="2:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="36"/>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="81" t="str">
+      <c r="I27" s="57" t="str">
         <f>R26</f>
         <v/>
       </c>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="57"/>
       <c r="M27" s="29"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
-      <c r="P27" s="73" t="s">
+      <c r="P27" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="Q27" s="73"/>
+      <c r="Q27" s="49"/>
       <c r="R27" s="32"/>
       <c r="S27" s="31"/>
       <c r="T27" s="32"/>
@@ -3067,14 +3067,14 @@
     </row>
     <row r="28" spans="2:38" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="36"/>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="64"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="82" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="46" t="s">
         <v>58</v>
       </c>
       <c r="I28" s="27"/>
@@ -3088,10 +3088,10 @@
       <c r="M28" s="16"/>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
-      <c r="P28" s="74" t="s">
+      <c r="P28" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="Q28" s="74"/>
+      <c r="Q28" s="47"/>
       <c r="R28" s="33"/>
       <c r="S28" s="33"/>
       <c r="T28" s="33"/>
@@ -3256,6 +3256,95 @@
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="C10:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="P16:S16"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="V26:W26"/>
     <mergeCell ref="W24:X24"/>
@@ -3280,95 +3369,6 @@
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="C10:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="Q14:S14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions gridLines="1" gridLinesSet="0"/>
